--- a/src/config/date_deginition.xlsx
+++ b/src/config/date_deginition.xlsx
@@ -5,19 +5,19 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\国土交通省コンペ\国土交通省データコンペ\src\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Project\1.Compe_202412\src\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A936A6AC-200D-4A39-A480-56FD3D7B4770}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4969AB3-4BFE-4EE4-9389-1A13B081E159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-83" yWindow="0" windowWidth="10965" windowHeight="13763" activeTab="1" xr2:uid="{C5D6E518-14F5-40A3-982D-F0483108330D}"/>
+    <workbookView xWindow="368" yWindow="368" windowWidth="16199" windowHeight="9982" activeTab="1" xr2:uid="{C5D6E518-14F5-40A3-982D-F0483108330D}"/>
   </bookViews>
   <sheets>
     <sheet name="change_history" sheetId="2" r:id="rId1"/>
     <sheet name="data_deginition" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">data_deginition!$A$1:$N$153</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">data_deginition!$A$1:$O$157</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1241" uniqueCount="443">
   <si>
     <t>reform_wet_area_date</t>
   </si>
@@ -1516,6 +1516,85 @@
     <rPh sb="31" eb="33">
       <t>ツイカ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>国土交通省データ</t>
+    <rPh sb="0" eb="5">
+      <t>コクドコウツウショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2030年の人口増加率</t>
+    <rPh sb="4" eb="5">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジンコウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ゾウカ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>リツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>population_prediction</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>flood_depth_rank</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>number_of_passenger</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>浸水危険度</t>
+    <rPh sb="0" eb="2">
+      <t>シンスイ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>キケンド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>最寄り駅乗降客数</t>
+    <rPh sb="0" eb="2">
+      <t>モヨ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>エキ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ジョウコウキャク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>土地販売価格</t>
+    <rPh sb="0" eb="4">
+      <t>トチハンバイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カカク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>land_price</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1628,7 +1707,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1669,6 +1748,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2122,14 +2204,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CE702F7-D430-49D9-8E32-C0148DF6169F}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:P153"/>
+  <dimension ref="A1:Q157"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="77" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B152" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I82" sqref="I82"/>
+      <selection pane="bottomRight" activeCell="B157" sqref="B157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
@@ -2138,11 +2219,11 @@
     <col min="2" max="3" width="25.3125" customWidth="1"/>
     <col min="4" max="4" width="53.6875" customWidth="1"/>
     <col min="5" max="9" width="19.125" customWidth="1"/>
-    <col min="10" max="12" width="19.125" style="7" customWidth="1"/>
-    <col min="13" max="13" width="29.5" customWidth="1"/>
+    <col min="10" max="13" width="19.125" style="7" customWidth="1"/>
+    <col min="14" max="14" width="29.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.7">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2179,11 +2260,14 @@
       <c r="L1" s="10" t="s">
         <v>422</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="10" t="s">
+        <v>433</v>
+      </c>
+      <c r="N1" s="11" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="2" spans="1:14" hidden="1" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.7">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -2218,9 +2302,12 @@
       <c r="L2" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="M2" s="3"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.7">
+      <c r="M2" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="N2" s="3"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.7">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -2255,9 +2342,12 @@
       <c r="L3" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="M3" s="5"/>
-    </row>
-    <row r="4" spans="1:14" hidden="1" x14ac:dyDescent="0.7">
+      <c r="M3" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="N3" s="5"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.7">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -2286,9 +2376,12 @@
       <c r="L4" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="M4" s="3"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.7">
+      <c r="M4" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="N4" s="3"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.7">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -2325,9 +2418,12 @@
       <c r="L5" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="M5" s="5"/>
-    </row>
-    <row r="6" spans="1:14" hidden="1" x14ac:dyDescent="0.7">
+      <c r="M5" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="N5" s="5"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.7">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -2356,9 +2452,12 @@
       <c r="L6" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="M6" s="3"/>
-    </row>
-    <row r="7" spans="1:14" hidden="1" x14ac:dyDescent="0.7">
+      <c r="M6" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="N6" s="3"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.7">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -2387,9 +2486,12 @@
       <c r="L7" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="M7" s="3"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.7">
+      <c r="M7" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="N7" s="3"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.7">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -2426,9 +2528,12 @@
       <c r="L8" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="M8" s="5"/>
-    </row>
-    <row r="9" spans="1:14" hidden="1" x14ac:dyDescent="0.7">
+      <c r="M8" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="N8" s="5"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.7">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -2455,9 +2560,12 @@
       <c r="L9" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" hidden="1" x14ac:dyDescent="0.7">
+      <c r="M9" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.7">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -2484,12 +2592,15 @@
       <c r="L10" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="M10" s="3"/>
-      <c r="N10" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" hidden="1" x14ac:dyDescent="0.7">
+      <c r="M10" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="N10" s="3"/>
+      <c r="O10" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.7">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -2518,9 +2629,12 @@
       <c r="L11" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" hidden="1" x14ac:dyDescent="0.7">
+      <c r="M11" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.7">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -2549,9 +2663,12 @@
       <c r="L12" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.7">
+      <c r="M12" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.7">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -2586,11 +2703,14 @@
       <c r="L13" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="M13" s="5" t="s">
+      <c r="M13" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="N13" s="5" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="14" spans="1:14" hidden="1" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.7">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -2619,9 +2739,12 @@
       <c r="L14" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.7">
+      <c r="M14" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.7">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -2638,7 +2761,7 @@
         <v>19</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>19</v>
+        <v>404</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -2654,9 +2777,12 @@
       <c r="L15" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.7">
+      <c r="M15" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.7">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -2673,7 +2799,7 @@
         <v>19</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>19</v>
+        <v>404</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -2689,9 +2815,12 @@
       <c r="L16" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="1:14" ht="52.9" x14ac:dyDescent="0.7">
+      <c r="M16" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="1:15" ht="52.9" x14ac:dyDescent="0.7">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -2728,11 +2857,14 @@
       <c r="L17" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="M17" s="6" t="s">
+      <c r="M17" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="N17" s="6" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="18" spans="1:14" hidden="1" x14ac:dyDescent="0.7">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.7">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -2763,12 +2895,15 @@
       <c r="L18" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="M18" s="3"/>
-      <c r="N18" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" hidden="1" x14ac:dyDescent="0.7">
+      <c r="M18" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="N18" s="3"/>
+      <c r="O18" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.7">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -2799,12 +2934,15 @@
       <c r="L19" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="M19" s="3"/>
-      <c r="N19" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.7">
+      <c r="M19" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="N19" s="3"/>
+      <c r="O19" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.7">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -2837,9 +2975,12 @@
       <c r="L20" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="M20" s="5"/>
-    </row>
-    <row r="21" spans="1:14" hidden="1" x14ac:dyDescent="0.7">
+      <c r="M20" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="N20" s="5"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.7">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -2872,12 +3013,15 @@
       <c r="L21" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="M21" s="5"/>
-      <c r="N21" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.7">
+      <c r="M21" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="N21" s="5"/>
+      <c r="O21" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.7">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -2912,9 +3056,12 @@
       <c r="L22" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="M22" s="5"/>
-    </row>
-    <row r="23" spans="1:14" hidden="1" x14ac:dyDescent="0.7">
+      <c r="M22" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="N22" s="5"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.7">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -2943,12 +3090,15 @@
       <c r="L23" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="M23" s="3"/>
-      <c r="N23" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" hidden="1" x14ac:dyDescent="0.7">
+      <c r="M23" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="N23" s="3"/>
+      <c r="O23" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.7">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -2979,14 +3129,17 @@
       <c r="L24" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="M24" s="5" t="s">
+      <c r="M24" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="N24" s="5" t="s">
         <v>412</v>
       </c>
-      <c r="N24" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" hidden="1" x14ac:dyDescent="0.7">
+      <c r="O24" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.7">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -3015,12 +3168,15 @@
       <c r="L25" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="M25" s="3"/>
-      <c r="N25" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" hidden="1" x14ac:dyDescent="0.7">
+      <c r="M25" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="N25" s="3"/>
+      <c r="O25" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.7">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -3049,12 +3205,15 @@
       <c r="L26" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="M26" s="3"/>
-      <c r="N26" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" ht="35.25" hidden="1" x14ac:dyDescent="0.7">
+      <c r="M26" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="N26" s="3"/>
+      <c r="O26" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="35.25" x14ac:dyDescent="0.7">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -3086,13 +3245,16 @@
         <v>404</v>
       </c>
       <c r="M27" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="N27" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="N27" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" ht="70.5" hidden="1" x14ac:dyDescent="0.7">
+      <c r="O27" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="70.5" x14ac:dyDescent="0.7">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -3123,14 +3285,17 @@
       <c r="L28" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="M28" s="6" t="s">
+      <c r="M28" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="N28" s="6" t="s">
         <v>406</v>
       </c>
-      <c r="N28" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" ht="35.25" hidden="1" x14ac:dyDescent="0.7">
+      <c r="O28" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="35.25" x14ac:dyDescent="0.7">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -3161,14 +3326,17 @@
       <c r="L29" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="M29" s="6" t="s">
+      <c r="M29" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="N29" s="6" t="s">
         <v>406</v>
       </c>
-      <c r="N29" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" hidden="1" x14ac:dyDescent="0.7">
+      <c r="O29" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.7">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -3199,14 +3367,17 @@
       <c r="L30" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="M30" s="6" t="s">
+      <c r="M30" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="N30" s="6" t="s">
         <v>406</v>
       </c>
-      <c r="N30" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" hidden="1" x14ac:dyDescent="0.7">
+      <c r="O30" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.7">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -3237,12 +3408,15 @@
       <c r="L31" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="M31" s="3"/>
-      <c r="N31" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" hidden="1" x14ac:dyDescent="0.7">
+      <c r="M31" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="N31" s="3"/>
+      <c r="O31" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.7">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -3273,12 +3447,15 @@
       <c r="L32" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="M32" s="3"/>
-      <c r="N32" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" hidden="1" x14ac:dyDescent="0.7">
+      <c r="M32" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="N32" s="3"/>
+      <c r="O32" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.7">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -3309,12 +3486,15 @@
       <c r="L33" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="M33" s="3"/>
-      <c r="N33" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" ht="35.25" hidden="1" x14ac:dyDescent="0.7">
+      <c r="M33" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="N33" s="3"/>
+      <c r="O33" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="35.25" x14ac:dyDescent="0.7">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -3345,12 +3525,15 @@
       <c r="L34" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="M34" s="3"/>
-      <c r="N34" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" ht="35.25" hidden="1" x14ac:dyDescent="0.7">
+      <c r="M34" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="N34" s="3"/>
+      <c r="O34" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="35.25" x14ac:dyDescent="0.7">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -3381,12 +3564,15 @@
       <c r="L35" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="M35" s="3"/>
-      <c r="N35" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" ht="35.25" hidden="1" x14ac:dyDescent="0.7">
+      <c r="M35" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="N35" s="3"/>
+      <c r="O35" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="35.25" x14ac:dyDescent="0.7">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -3417,14 +3603,17 @@
       <c r="L36" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="M36" s="6" t="s">
+      <c r="M36" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="N36" s="6" t="s">
         <v>406</v>
       </c>
-      <c r="N36" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" hidden="1" x14ac:dyDescent="0.7">
+      <c r="O36" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.7">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -3451,12 +3640,15 @@
       <c r="L37" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="M37" s="3"/>
-      <c r="N37" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" hidden="1" x14ac:dyDescent="0.7">
+      <c r="M37" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="N37" s="3"/>
+      <c r="O37" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.7">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -3487,12 +3679,15 @@
       <c r="L38" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="M38" s="3"/>
-      <c r="N38" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" ht="35.25" hidden="1" x14ac:dyDescent="0.7">
+      <c r="M38" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="N38" s="3"/>
+      <c r="O38" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="35.25" x14ac:dyDescent="0.7">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -3523,14 +3718,17 @@
       <c r="L39" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="M39" s="6" t="s">
+      <c r="M39" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="N39" s="6" t="s">
         <v>406</v>
       </c>
-      <c r="N39" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" hidden="1" x14ac:dyDescent="0.7">
+      <c r="O39" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.7">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -3561,12 +3759,15 @@
       <c r="L40" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="M40" s="3"/>
-      <c r="N40" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" hidden="1" x14ac:dyDescent="0.7">
+      <c r="M40" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="N40" s="3"/>
+      <c r="O40" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.7">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -3595,12 +3796,15 @@
       <c r="L41" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="M41" s="5"/>
-      <c r="N41" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" ht="35.25" hidden="1" x14ac:dyDescent="0.7">
+      <c r="M41" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="N41" s="5"/>
+      <c r="O41" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" ht="35.25" x14ac:dyDescent="0.7">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -3629,14 +3833,17 @@
       <c r="L42" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="M42" s="6" t="s">
+      <c r="M42" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="N42" s="6" t="s">
         <v>406</v>
       </c>
-      <c r="N42" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" hidden="1" x14ac:dyDescent="0.7">
+      <c r="O42" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.7">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -3667,12 +3874,15 @@
       <c r="L43" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="M43" s="5"/>
-      <c r="N43" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" hidden="1" x14ac:dyDescent="0.7">
+      <c r="M43" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="N43" s="5"/>
+      <c r="O43" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.7">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -3701,12 +3911,15 @@
       <c r="L44" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="M44" s="5"/>
-      <c r="N44" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" hidden="1" x14ac:dyDescent="0.7">
+      <c r="M44" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="N44" s="5"/>
+      <c r="O44" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.7">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -3737,12 +3950,15 @@
       <c r="L45" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="M45" s="5"/>
-      <c r="N45" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" hidden="1" x14ac:dyDescent="0.7">
+      <c r="M45" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="N45" s="5"/>
+      <c r="O45" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.7">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -3771,11 +3987,14 @@
       <c r="L46" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="M46" s="5" t="s">
+      <c r="M46" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="N46" s="5" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="47" spans="1:14" hidden="1" x14ac:dyDescent="0.7">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.7">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -3806,9 +4025,12 @@
       <c r="L47" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="1:14" hidden="1" x14ac:dyDescent="0.7">
+      <c r="M47" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.7">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -3837,9 +4059,12 @@
       <c r="L48" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="1:14" hidden="1" x14ac:dyDescent="0.7">
+      <c r="M48" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.7">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -3868,12 +4093,15 @@
       <c r="L49" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="M49" s="3"/>
-      <c r="N49" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.7">
+      <c r="M49" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="N49" s="3"/>
+      <c r="O49" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.7">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -3906,9 +4134,12 @@
       <c r="L50" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="M50" s="5"/>
-    </row>
-    <row r="51" spans="1:14" hidden="1" x14ac:dyDescent="0.7">
+      <c r="M50" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="N50" s="5"/>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.7">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -3937,12 +4168,15 @@
       <c r="L51" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="M51" s="5"/>
-      <c r="N51" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.7">
+      <c r="M51" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="N51" s="5"/>
+      <c r="O51" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.7">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -3975,11 +4209,14 @@
       <c r="L52" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="M52" s="5" t="s">
+      <c r="M52" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="N52" s="5" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.7">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -4012,9 +4249,12 @@
       <c r="L53" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="M53" s="5"/>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.7">
+      <c r="M53" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="N53" s="5"/>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.7">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -4047,9 +4287,12 @@
       <c r="L54" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="M54" s="5"/>
-    </row>
-    <row r="55" spans="1:14" ht="35.25" hidden="1" x14ac:dyDescent="0.7">
+      <c r="M54" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="N54" s="5"/>
+    </row>
+    <row r="55" spans="1:15" ht="35.25" x14ac:dyDescent="0.7">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -4080,9 +4323,12 @@
       <c r="L55" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="1:14" hidden="1" x14ac:dyDescent="0.7">
+      <c r="M55" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.7">
       <c r="A56" s="2">
         <v>55</v>
       </c>
@@ -4111,12 +4357,15 @@
       <c r="L56" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="M56" s="5"/>
-      <c r="N56" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" hidden="1" x14ac:dyDescent="0.7">
+      <c r="M56" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="N56" s="5"/>
+      <c r="O56" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.7">
       <c r="A57" s="2">
         <v>56</v>
       </c>
@@ -4143,12 +4392,15 @@
       <c r="L57" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="M57" s="5"/>
-      <c r="N57" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" hidden="1" x14ac:dyDescent="0.7">
+      <c r="M57" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="N57" s="5"/>
+      <c r="O57" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.7">
       <c r="A58" s="2">
         <v>57</v>
       </c>
@@ -4175,12 +4427,15 @@
       <c r="L58" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="M58" s="5"/>
-      <c r="N58" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" ht="35.25" hidden="1" x14ac:dyDescent="0.7">
+      <c r="M58" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="N58" s="5"/>
+      <c r="O58" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" ht="35.25" x14ac:dyDescent="0.7">
       <c r="A59" s="2">
         <v>58</v>
       </c>
@@ -4209,12 +4464,15 @@
       <c r="L59" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="M59" s="5"/>
-      <c r="N59" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" ht="35.25" hidden="1" x14ac:dyDescent="0.7">
+      <c r="M59" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="N59" s="5"/>
+      <c r="O59" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" ht="35.25" x14ac:dyDescent="0.7">
       <c r="A60" s="2">
         <v>59</v>
       </c>
@@ -4243,12 +4501,15 @@
       <c r="L60" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="M60" s="5"/>
-      <c r="N60" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" hidden="1" x14ac:dyDescent="0.7">
+      <c r="M60" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="N60" s="5"/>
+      <c r="O60" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.7">
       <c r="A61" s="2">
         <v>60</v>
       </c>
@@ -4279,12 +4540,15 @@
       <c r="L61" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="M61" s="5"/>
-      <c r="N61" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" ht="52.9" hidden="1" x14ac:dyDescent="0.7">
+      <c r="M61" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="N61" s="5"/>
+      <c r="O61" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" ht="52.9" x14ac:dyDescent="0.7">
       <c r="A62" s="2">
         <v>61</v>
       </c>
@@ -4313,12 +4577,15 @@
       <c r="L62" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="M62" s="5"/>
-      <c r="N62" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" ht="35.25" hidden="1" x14ac:dyDescent="0.7">
+      <c r="M62" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="N62" s="5"/>
+      <c r="O62" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" ht="35.25" x14ac:dyDescent="0.7">
       <c r="A63" s="2">
         <v>62</v>
       </c>
@@ -4347,12 +4614,15 @@
       <c r="L63" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="M63" s="5"/>
-      <c r="N63" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" hidden="1" x14ac:dyDescent="0.7">
+      <c r="M63" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="N63" s="5"/>
+      <c r="O63" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.7">
       <c r="A64" s="2">
         <v>63</v>
       </c>
@@ -4383,12 +4653,15 @@
       <c r="L64" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="M64" s="5"/>
-      <c r="N64" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" hidden="1" x14ac:dyDescent="0.7">
+      <c r="M64" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="N64" s="5"/>
+      <c r="O64" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.7">
       <c r="A65" s="2">
         <v>64</v>
       </c>
@@ -4417,12 +4690,15 @@
       <c r="L65" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="M65" s="5"/>
-      <c r="N65" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14" hidden="1" x14ac:dyDescent="0.7">
+      <c r="M65" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="N65" s="5"/>
+      <c r="O65" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.7">
       <c r="A66" s="2">
         <v>65</v>
       </c>
@@ -4449,12 +4725,15 @@
       <c r="L66" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="M66" s="5"/>
-      <c r="N66" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14" hidden="1" x14ac:dyDescent="0.7">
+      <c r="M66" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="N66" s="5"/>
+      <c r="O66" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.7">
       <c r="A67" s="2">
         <v>66</v>
       </c>
@@ -4481,12 +4760,15 @@
       <c r="L67" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="M67" s="5"/>
-      <c r="N67" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14" hidden="1" x14ac:dyDescent="0.7">
+      <c r="M67" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="N67" s="5"/>
+      <c r="O67" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.7">
       <c r="A68" s="2">
         <v>67</v>
       </c>
@@ -4515,11 +4797,14 @@
       <c r="L68" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="M68" s="5" t="s">
+      <c r="M68" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="N68" s="5" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="69" spans="1:14" hidden="1" x14ac:dyDescent="0.7">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.7">
       <c r="A69" s="2">
         <v>68</v>
       </c>
@@ -4548,9 +4833,12 @@
       <c r="L69" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="1:14" hidden="1" x14ac:dyDescent="0.7">
+      <c r="M69" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.7">
       <c r="A70" s="2">
         <v>69</v>
       </c>
@@ -4579,9 +4867,12 @@
       <c r="L70" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="1:14" hidden="1" x14ac:dyDescent="0.7">
+      <c r="M70" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.7">
       <c r="A71" s="2">
         <v>70</v>
       </c>
@@ -4610,9 +4901,12 @@
       <c r="L71" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="1:14" hidden="1" x14ac:dyDescent="0.7">
+      <c r="M71" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.7">
       <c r="A72" s="2">
         <v>71</v>
       </c>
@@ -4641,9 +4935,12 @@
       <c r="L72" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="1:14" ht="35.25" hidden="1" x14ac:dyDescent="0.7">
+      <c r="M72" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="1:15" ht="35.25" x14ac:dyDescent="0.7">
       <c r="A73" s="2">
         <v>72</v>
       </c>
@@ -4672,9 +4969,12 @@
       <c r="L73" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="1:14" ht="35.25" hidden="1" x14ac:dyDescent="0.7">
+      <c r="M73" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="1:15" ht="35.25" x14ac:dyDescent="0.7">
       <c r="A74" s="2">
         <v>73</v>
       </c>
@@ -4705,9 +5005,12 @@
       <c r="L74" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="1:14" hidden="1" x14ac:dyDescent="0.7">
+      <c r="M74" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.7">
       <c r="A75" s="2">
         <v>74</v>
       </c>
@@ -4738,9 +5041,12 @@
       <c r="L75" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.7">
+      <c r="M75" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.7">
       <c r="A76" s="2">
         <v>75</v>
       </c>
@@ -4777,11 +5083,14 @@
       <c r="L76" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="M76" s="5" t="s">
+      <c r="M76" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="N76" s="5" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="77" spans="1:14" hidden="1" x14ac:dyDescent="0.7">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.7">
       <c r="A77" s="2">
         <v>76</v>
       </c>
@@ -4812,12 +5121,15 @@
       <c r="L77" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="M77" s="5"/>
-      <c r="N77" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14" hidden="1" x14ac:dyDescent="0.7">
+      <c r="M77" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="N77" s="5"/>
+      <c r="O77" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.7">
       <c r="A78" s="2">
         <v>77</v>
       </c>
@@ -4848,12 +5160,15 @@
       <c r="L78" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="M78" s="5"/>
-      <c r="N78" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14" hidden="1" x14ac:dyDescent="0.7">
+      <c r="M78" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="N78" s="5"/>
+      <c r="O78" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.7">
       <c r="A79" s="2">
         <v>78</v>
       </c>
@@ -4882,9 +5197,12 @@
       <c r="L79" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="M79" s="3"/>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.7">
+      <c r="M79" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="N79" s="3"/>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.7">
       <c r="A80" s="2">
         <v>79</v>
       </c>
@@ -4921,9 +5239,12 @@
       <c r="L80" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="M80" s="5"/>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.7">
+      <c r="M80" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="N80" s="5"/>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.7">
       <c r="A81" s="2">
         <v>80</v>
       </c>
@@ -4960,9 +5281,12 @@
       <c r="L81" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="M81" s="5"/>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.7">
+      <c r="M81" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="N81" s="5"/>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.7">
       <c r="A82" s="2">
         <v>81</v>
       </c>
@@ -4999,9 +5323,12 @@
       <c r="L82" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="M82" s="5"/>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.7">
+      <c r="M82" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="N82" s="5"/>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.7">
       <c r="A83" s="2">
         <v>82</v>
       </c>
@@ -5038,9 +5365,12 @@
       <c r="L83" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="M83" s="5"/>
-    </row>
-    <row r="84" spans="1:14" hidden="1" x14ac:dyDescent="0.7">
+      <c r="M83" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="N83" s="5"/>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.7">
       <c r="A84" s="2">
         <v>83</v>
       </c>
@@ -5071,11 +5401,14 @@
       <c r="L84" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="M84" s="5" t="s">
+      <c r="M84" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="N84" s="5" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="85" spans="1:14" ht="35.25" hidden="1" x14ac:dyDescent="0.7">
+    <row r="85" spans="1:15" ht="35.25" x14ac:dyDescent="0.7">
       <c r="A85" s="2">
         <v>84</v>
       </c>
@@ -5104,12 +5437,15 @@
       <c r="L85" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="M85" s="3"/>
-      <c r="N85" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="86" spans="1:14" ht="35.25" hidden="1" x14ac:dyDescent="0.7">
+      <c r="M85" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="N85" s="3"/>
+      <c r="O85" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" ht="35.25" x14ac:dyDescent="0.7">
       <c r="A86" s="2">
         <v>85</v>
       </c>
@@ -5138,9 +5474,12 @@
       <c r="L86" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="1:14" hidden="1" x14ac:dyDescent="0.7">
+      <c r="M86" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.7">
       <c r="A87" s="2">
         <v>86</v>
       </c>
@@ -5171,9 +5510,12 @@
       <c r="L87" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="1:14" hidden="1" x14ac:dyDescent="0.7">
+      <c r="M87" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.7">
       <c r="A88" s="2">
         <v>87</v>
       </c>
@@ -5204,9 +5546,12 @@
       <c r="L88" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="1:14" hidden="1" x14ac:dyDescent="0.7">
+      <c r="M88" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.7">
       <c r="A89" s="2">
         <v>88</v>
       </c>
@@ -5235,11 +5580,14 @@
       <c r="L89" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="M89" s="5" t="s">
+      <c r="M89" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="N89" s="5" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="90" spans="1:14" hidden="1" x14ac:dyDescent="0.7">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.7">
       <c r="A90" s="2">
         <v>89</v>
       </c>
@@ -5268,11 +5616,14 @@
       <c r="L90" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="M90" s="5" t="s">
+      <c r="M90" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="N90" s="5" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="91" spans="1:14" hidden="1" x14ac:dyDescent="0.7">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.7">
       <c r="A91" s="2">
         <v>90</v>
       </c>
@@ -5301,12 +5652,15 @@
       <c r="L91" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="M91" s="3"/>
-      <c r="N91" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="92" spans="1:14" hidden="1" x14ac:dyDescent="0.7">
+      <c r="M91" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="N91" s="3"/>
+      <c r="O91" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.7">
       <c r="A92" s="2">
         <v>91</v>
       </c>
@@ -5337,12 +5691,15 @@
       <c r="L92" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="M92" s="5"/>
-      <c r="N92" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.7">
+      <c r="M92" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="N92" s="5"/>
+      <c r="O92" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.7">
       <c r="A93" s="2">
         <v>92</v>
       </c>
@@ -5377,9 +5734,12 @@
       <c r="L93" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="M93" s="5"/>
-    </row>
-    <row r="94" spans="1:14" hidden="1" x14ac:dyDescent="0.7">
+      <c r="M93" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="N93" s="5"/>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.7">
       <c r="A94" s="2">
         <v>93</v>
       </c>
@@ -5408,11 +5768,14 @@
       <c r="L94" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="M94" s="5" t="s">
+      <c r="M94" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="N94" s="5" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="95" spans="1:14" hidden="1" x14ac:dyDescent="0.7">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.7">
       <c r="A95" s="2">
         <v>94</v>
       </c>
@@ -5441,11 +5804,14 @@
       <c r="L95" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="M95" s="5" t="s">
+      <c r="M95" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="N95" s="5" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="96" spans="1:14" hidden="1" x14ac:dyDescent="0.7">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.7">
       <c r="A96" s="2">
         <v>95</v>
       </c>
@@ -5474,12 +5840,15 @@
       <c r="L96" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="M96" s="3"/>
-      <c r="N96" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="97" spans="1:16" hidden="1" x14ac:dyDescent="0.7">
+      <c r="M96" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="N96" s="3"/>
+      <c r="O96" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A97" s="2">
         <v>96</v>
       </c>
@@ -5510,12 +5879,15 @@
       <c r="L97" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="M97" s="5"/>
-      <c r="N97" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.7">
+      <c r="M97" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="N97" s="5"/>
+      <c r="O97" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A98" s="2">
         <v>97</v>
       </c>
@@ -5550,9 +5922,12 @@
       <c r="L98" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="M98" s="5"/>
-    </row>
-    <row r="99" spans="1:16" hidden="1" x14ac:dyDescent="0.7">
+      <c r="M98" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="N98" s="5"/>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A99" s="2">
         <v>98</v>
       </c>
@@ -5581,12 +5956,15 @@
       <c r="L99" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="M99" s="5"/>
-      <c r="N99" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="100" spans="1:16" hidden="1" x14ac:dyDescent="0.7">
+      <c r="M99" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="N99" s="5"/>
+      <c r="O99" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A100" s="2">
         <v>99</v>
       </c>
@@ -5615,12 +5993,15 @@
       <c r="L100" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="M100" s="5"/>
-      <c r="N100" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="101" spans="1:16" hidden="1" x14ac:dyDescent="0.7">
+      <c r="M100" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="N100" s="5"/>
+      <c r="O100" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A101" s="2">
         <v>100</v>
       </c>
@@ -5651,12 +6032,15 @@
       <c r="L101" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="M101" s="3"/>
-      <c r="N101" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="102" spans="1:16" hidden="1" x14ac:dyDescent="0.7">
+      <c r="M101" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="N101" s="3"/>
+      <c r="O101" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A102" s="2">
         <v>101</v>
       </c>
@@ -5687,12 +6071,15 @@
       <c r="L102" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="M102" s="3"/>
-      <c r="N102" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="103" spans="1:16" hidden="1" x14ac:dyDescent="0.7">
+      <c r="M102" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="N102" s="3"/>
+      <c r="O102" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A103" s="2">
         <v>102</v>
       </c>
@@ -5719,12 +6106,15 @@
       <c r="L103" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="M103" s="3"/>
-      <c r="N103" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="104" spans="1:16" hidden="1" x14ac:dyDescent="0.7">
+      <c r="M103" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="N103" s="3"/>
+      <c r="O103" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A104" s="2">
         <v>103</v>
       </c>
@@ -5753,12 +6143,15 @@
       <c r="L104" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="M104" s="3"/>
-      <c r="N104" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="105" spans="1:16" hidden="1" x14ac:dyDescent="0.7">
+      <c r="M104" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="N104" s="3"/>
+      <c r="O104" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A105" s="2">
         <v>104</v>
       </c>
@@ -5787,12 +6180,15 @@
       <c r="L105" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="M105" s="3"/>
-      <c r="N105" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="106" spans="1:16" hidden="1" x14ac:dyDescent="0.7">
+      <c r="M105" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="N105" s="3"/>
+      <c r="O105" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A106" s="2">
         <v>105</v>
       </c>
@@ -5821,12 +6217,15 @@
       <c r="L106" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="M106" s="3"/>
-      <c r="N106" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="107" spans="1:16" hidden="1" x14ac:dyDescent="0.7">
+      <c r="M106" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="N106" s="3"/>
+      <c r="O106" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A107" s="2">
         <v>106</v>
       </c>
@@ -5857,9 +6256,12 @@
       <c r="L107" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="M107" s="3"/>
-    </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.7">
+      <c r="M107" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="N107" s="3"/>
+    </row>
+    <row r="108" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A108" s="2">
         <v>107</v>
       </c>
@@ -5896,9 +6298,12 @@
       <c r="L108" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="M108" s="5"/>
-    </row>
-    <row r="109" spans="1:16" ht="35.25" hidden="1" x14ac:dyDescent="0.7">
+      <c r="M108" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="N108" s="5"/>
+    </row>
+    <row r="109" spans="1:17" ht="35.25" x14ac:dyDescent="0.7">
       <c r="A109" s="2">
         <v>108</v>
       </c>
@@ -5929,12 +6334,15 @@
       <c r="L109" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="M109" s="5"/>
-      <c r="N109" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.7">
+      <c r="M109" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="N109" s="5"/>
+      <c r="O109" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A110" s="2">
         <v>109</v>
       </c>
@@ -5969,12 +6377,15 @@
       <c r="L110" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="M110" s="5"/>
-      <c r="P110">
+      <c r="M110" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="N110" s="5"/>
+      <c r="Q110">
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.7">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A111" s="2">
         <v>110</v>
       </c>
@@ -6011,9 +6422,12 @@
       <c r="L111" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="M111" s="5"/>
-    </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.7">
+      <c r="M111" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="N111" s="5"/>
+    </row>
+    <row r="112" spans="1:17" x14ac:dyDescent="0.7">
       <c r="A112" s="2">
         <v>111</v>
       </c>
@@ -6048,9 +6462,12 @@
       <c r="L112" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="M112" s="5"/>
-    </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.7">
+      <c r="M112" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="N112" s="5"/>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.7">
       <c r="A113" s="2">
         <v>112</v>
       </c>
@@ -6087,9 +6504,12 @@
       <c r="L113" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="M113" s="5"/>
-    </row>
-    <row r="114" spans="1:14" hidden="1" x14ac:dyDescent="0.7">
+      <c r="M113" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="N113" s="5"/>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.7">
       <c r="A114" s="2">
         <v>113</v>
       </c>
@@ -6120,9 +6540,12 @@
       <c r="L114" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="M114" s="3"/>
-    </row>
-    <row r="115" spans="1:14" hidden="1" x14ac:dyDescent="0.7">
+      <c r="M114" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="N114" s="3"/>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.7">
       <c r="A115" s="2">
         <v>114</v>
       </c>
@@ -6153,9 +6576,12 @@
       <c r="L115" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="M115" s="3"/>
-    </row>
-    <row r="116" spans="1:14" hidden="1" x14ac:dyDescent="0.7">
+      <c r="M115" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="N115" s="3"/>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.7">
       <c r="A116" s="2">
         <v>115</v>
       </c>
@@ -6186,12 +6612,15 @@
       <c r="L116" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="M116" s="3"/>
-      <c r="N116" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="117" spans="1:14" hidden="1" x14ac:dyDescent="0.7">
+      <c r="M116" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="N116" s="3"/>
+      <c r="O116" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.7">
       <c r="A117" s="2">
         <v>116</v>
       </c>
@@ -6222,12 +6651,15 @@
       <c r="L117" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="M117" s="3"/>
-      <c r="N117" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="118" spans="1:14" hidden="1" x14ac:dyDescent="0.7">
+      <c r="M117" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="N117" s="3"/>
+      <c r="O117" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.7">
       <c r="A118" s="2">
         <v>117</v>
       </c>
@@ -6258,12 +6690,15 @@
       <c r="L118" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="M118" s="3"/>
-      <c r="N118" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="119" spans="1:14" ht="35.25" hidden="1" x14ac:dyDescent="0.7">
+      <c r="M118" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="N118" s="3"/>
+      <c r="O118" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" ht="35.25" x14ac:dyDescent="0.7">
       <c r="A119" s="2">
         <v>118</v>
       </c>
@@ -6292,12 +6727,15 @@
       <c r="L119" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="M119" s="3"/>
-      <c r="N119" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="120" spans="1:14" hidden="1" x14ac:dyDescent="0.7">
+      <c r="M119" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="N119" s="3"/>
+      <c r="O119" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.7">
       <c r="A120" s="2">
         <v>119</v>
       </c>
@@ -6328,12 +6766,15 @@
       <c r="L120" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="M120" s="3"/>
-      <c r="N120" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="121" spans="1:14" ht="35.25" hidden="1" x14ac:dyDescent="0.7">
+      <c r="M120" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="N120" s="3"/>
+      <c r="O120" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" ht="35.25" x14ac:dyDescent="0.7">
       <c r="A121" s="2">
         <v>120</v>
       </c>
@@ -6362,12 +6803,15 @@
       <c r="L121" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="M121" s="3"/>
-      <c r="N121" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="122" spans="1:14" hidden="1" x14ac:dyDescent="0.7">
+      <c r="M121" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="N121" s="3"/>
+      <c r="O121" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.7">
       <c r="A122" s="2">
         <v>121</v>
       </c>
@@ -6398,12 +6842,15 @@
       <c r="L122" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="M122" s="3"/>
-      <c r="N122" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="123" spans="1:14" ht="35.25" hidden="1" x14ac:dyDescent="0.7">
+      <c r="M122" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="N122" s="3"/>
+      <c r="O122" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" ht="35.25" x14ac:dyDescent="0.7">
       <c r="A123" s="2">
         <v>122</v>
       </c>
@@ -6432,12 +6879,15 @@
       <c r="L123" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="M123" s="3"/>
-      <c r="N123" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="124" spans="1:14" hidden="1" x14ac:dyDescent="0.7">
+      <c r="M123" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="N123" s="3"/>
+      <c r="O123" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.7">
       <c r="A124" s="2">
         <v>123</v>
       </c>
@@ -6468,12 +6918,15 @@
       <c r="L124" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="M124" s="3"/>
-      <c r="N124" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="125" spans="1:14" hidden="1" x14ac:dyDescent="0.7">
+      <c r="M124" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="N124" s="3"/>
+      <c r="O124" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.7">
       <c r="A125" s="2">
         <v>124</v>
       </c>
@@ -6504,9 +6957,12 @@
       <c r="L125" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="M125" s="3"/>
-    </row>
-    <row r="126" spans="1:14" hidden="1" x14ac:dyDescent="0.7">
+      <c r="M125" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="N125" s="3"/>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.7">
       <c r="A126" s="2">
         <v>125</v>
       </c>
@@ -6537,12 +6993,15 @@
       <c r="L126" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="M126" s="3"/>
-      <c r="N126" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.7">
+      <c r="M126" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="N126" s="3"/>
+      <c r="O126" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.7">
       <c r="A127" s="2">
         <v>126</v>
       </c>
@@ -6579,9 +7038,12 @@
       <c r="L127" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="M127" s="5"/>
-    </row>
-    <row r="128" spans="1:14" hidden="1" x14ac:dyDescent="0.7">
+      <c r="M127" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="N127" s="5"/>
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.7">
       <c r="A128" s="2">
         <v>127</v>
       </c>
@@ -6612,12 +7074,15 @@
       <c r="L128" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="M128" s="5"/>
-      <c r="N128" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="129" spans="1:14" hidden="1" x14ac:dyDescent="0.7">
+      <c r="M128" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="N128" s="5"/>
+      <c r="O128" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15" x14ac:dyDescent="0.7">
       <c r="A129" s="2">
         <v>128</v>
       </c>
@@ -6648,12 +7113,15 @@
       <c r="L129" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="M129" s="3"/>
-      <c r="N129" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="130" spans="1:14" hidden="1" x14ac:dyDescent="0.7">
+      <c r="M129" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="N129" s="3"/>
+      <c r="O129" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.7">
       <c r="A130" s="2">
         <v>129</v>
       </c>
@@ -6682,12 +7150,15 @@
       <c r="L130" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="M130" s="3"/>
-      <c r="N130" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="131" spans="1:14" ht="35.25" x14ac:dyDescent="0.7">
+      <c r="M130" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="N130" s="3"/>
+      <c r="O130" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15" ht="35.25" x14ac:dyDescent="0.7">
       <c r="A131" s="2">
         <v>130</v>
       </c>
@@ -6724,9 +7195,12 @@
       <c r="L131" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="M131" s="5"/>
-    </row>
-    <row r="132" spans="1:14" ht="35.25" hidden="1" x14ac:dyDescent="0.7">
+      <c r="M131" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="N131" s="5"/>
+    </row>
+    <row r="132" spans="1:15" ht="35.25" x14ac:dyDescent="0.7">
       <c r="A132" s="2">
         <v>131</v>
       </c>
@@ -6757,9 +7231,12 @@
       <c r="L132" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="M132" s="3"/>
-    </row>
-    <row r="133" spans="1:14" hidden="1" x14ac:dyDescent="0.7">
+      <c r="M132" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="N132" s="3"/>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.7">
       <c r="A133" s="2">
         <v>132</v>
       </c>
@@ -6790,12 +7267,15 @@
       <c r="L133" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="M133" s="5"/>
-      <c r="N133" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="134" spans="1:14" hidden="1" x14ac:dyDescent="0.7">
+      <c r="M133" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="N133" s="5"/>
+      <c r="O133" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.7">
       <c r="A134" s="2">
         <v>133</v>
       </c>
@@ -6822,12 +7302,15 @@
       <c r="L134" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="M134" s="3"/>
-      <c r="N134" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="135" spans="1:14" hidden="1" x14ac:dyDescent="0.7">
+      <c r="M134" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="N134" s="3"/>
+      <c r="O134" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15" x14ac:dyDescent="0.7">
       <c r="A135" s="2">
         <v>134</v>
       </c>
@@ -6858,12 +7341,15 @@
       <c r="L135" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="M135" s="5"/>
-      <c r="N135" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="136" spans="1:14" hidden="1" x14ac:dyDescent="0.7">
+      <c r="M135" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="N135" s="5"/>
+      <c r="O135" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15" x14ac:dyDescent="0.7">
       <c r="A136" s="2">
         <v>135</v>
       </c>
@@ -6892,12 +7378,15 @@
       <c r="L136" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="M136" s="3"/>
-      <c r="N136" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="137" spans="1:14" hidden="1" x14ac:dyDescent="0.7">
+      <c r="M136" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="N136" s="3"/>
+      <c r="O136" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15" x14ac:dyDescent="0.7">
       <c r="A137" s="2">
         <v>136</v>
       </c>
@@ -6924,12 +7413,15 @@
       <c r="L137" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="M137" s="3"/>
-      <c r="N137" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="138" spans="1:14" hidden="1" x14ac:dyDescent="0.7">
+      <c r="M137" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="N137" s="3"/>
+      <c r="O137" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15" x14ac:dyDescent="0.7">
       <c r="A138" s="2">
         <v>137</v>
       </c>
@@ -6960,12 +7452,15 @@
       <c r="L138" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="M138" s="5"/>
-      <c r="N138" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="139" spans="1:14" hidden="1" x14ac:dyDescent="0.7">
+      <c r="M138" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="N138" s="5"/>
+      <c r="O138" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15" x14ac:dyDescent="0.7">
       <c r="A139" s="2">
         <v>138</v>
       </c>
@@ -6994,12 +7489,15 @@
       <c r="L139" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="M139" s="3"/>
-      <c r="N139" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.7">
+      <c r="M139" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="N139" s="3"/>
+      <c r="O139" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15" x14ac:dyDescent="0.7">
       <c r="A140" s="2">
         <v>139</v>
       </c>
@@ -7034,9 +7532,12 @@
       <c r="L140" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="M140" s="5"/>
-    </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.7">
+      <c r="M140" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="N140" s="5"/>
+    </row>
+    <row r="141" spans="1:15" x14ac:dyDescent="0.7">
       <c r="A141" s="2">
         <v>140</v>
       </c>
@@ -7071,9 +7572,12 @@
       <c r="L141" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="M141" s="5"/>
-    </row>
-    <row r="142" spans="1:14" hidden="1" x14ac:dyDescent="0.7">
+      <c r="M141" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="N141" s="5"/>
+    </row>
+    <row r="142" spans="1:15" x14ac:dyDescent="0.7">
       <c r="A142" s="2">
         <v>141</v>
       </c>
@@ -7104,12 +7608,15 @@
       <c r="L142" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="M142" s="5"/>
-      <c r="N142" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="143" spans="1:14" hidden="1" x14ac:dyDescent="0.7">
+      <c r="M142" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="N142" s="5"/>
+      <c r="O142" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15" x14ac:dyDescent="0.7">
       <c r="A143" s="2">
         <v>142</v>
       </c>
@@ -7140,12 +7647,15 @@
       <c r="L143" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="M143" s="5"/>
-      <c r="N143" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="144" spans="1:14" hidden="1" x14ac:dyDescent="0.7">
+      <c r="M143" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="N143" s="5"/>
+      <c r="O143" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15" x14ac:dyDescent="0.7">
       <c r="A144" s="2">
         <v>143</v>
       </c>
@@ -7176,12 +7686,15 @@
       <c r="L144" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="M144" s="3"/>
-      <c r="N144" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="145" spans="1:14" hidden="1" x14ac:dyDescent="0.7">
+      <c r="M144" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="N144" s="3"/>
+      <c r="O144" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15" x14ac:dyDescent="0.7">
       <c r="A145" s="2">
         <v>144</v>
       </c>
@@ -7212,12 +7725,15 @@
       <c r="L145" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="M145" s="3"/>
-      <c r="N145" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="146" spans="1:14" hidden="1" x14ac:dyDescent="0.7">
+      <c r="M145" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="N145" s="3"/>
+      <c r="O145" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15" x14ac:dyDescent="0.7">
       <c r="A146" s="2">
         <v>145</v>
       </c>
@@ -7248,12 +7764,15 @@
       <c r="L146" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="M146" s="3"/>
-      <c r="N146" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="147" spans="1:14" hidden="1" x14ac:dyDescent="0.7">
+      <c r="M146" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="N146" s="3"/>
+      <c r="O146" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15" x14ac:dyDescent="0.7">
       <c r="A147" s="2">
         <v>146</v>
       </c>
@@ -7280,12 +7799,15 @@
       <c r="L147" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="M147" s="3"/>
-      <c r="N147" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="148" spans="1:14" hidden="1" x14ac:dyDescent="0.7">
+      <c r="M147" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="N147" s="3"/>
+      <c r="O147" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15" x14ac:dyDescent="0.7">
       <c r="A148" s="2">
         <v>147</v>
       </c>
@@ -7316,12 +7838,15 @@
       <c r="L148" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="M148" s="3"/>
-      <c r="N148" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="149" spans="1:14" ht="35.25" hidden="1" x14ac:dyDescent="0.7">
+      <c r="M148" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="N148" s="3"/>
+      <c r="O148" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15" ht="35.25" x14ac:dyDescent="0.7">
       <c r="A149" s="2">
         <v>148</v>
       </c>
@@ -7350,11 +7875,14 @@
       <c r="L149" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="M149" s="5" t="s">
+      <c r="M149" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="N149" s="5" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="150" spans="1:14" hidden="1" x14ac:dyDescent="0.7">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.7">
       <c r="A150" s="2">
         <v>149</v>
       </c>
@@ -7385,12 +7913,15 @@
       <c r="L150" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="M150" s="3"/>
-      <c r="N150" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="151" spans="1:14" ht="35.25" hidden="1" x14ac:dyDescent="0.7">
+      <c r="M150" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="N150" s="3"/>
+      <c r="O150" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15" ht="35.25" x14ac:dyDescent="0.7">
       <c r="A151" s="2">
         <v>150</v>
       </c>
@@ -7419,9 +7950,12 @@
       <c r="L151" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="M151" s="3"/>
-    </row>
-    <row r="152" spans="1:14" hidden="1" x14ac:dyDescent="0.7">
+      <c r="M151" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="N151" s="3"/>
+    </row>
+    <row r="152" spans="1:15" x14ac:dyDescent="0.7">
       <c r="A152" s="2">
         <v>151</v>
       </c>
@@ -7452,12 +7986,15 @@
       <c r="L152" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="M152" s="3"/>
-      <c r="N152" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="153" spans="1:14" ht="35.25" hidden="1" x14ac:dyDescent="0.7">
+      <c r="M152" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="N152" s="3"/>
+      <c r="O152" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15" ht="35.25" x14ac:dyDescent="0.7">
       <c r="A153" s="2">
         <v>152</v>
       </c>
@@ -7488,21 +8025,179 @@
       <c r="L153" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="M153" s="3"/>
-      <c r="N153" t="s">
+      <c r="M153" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="N153" s="3"/>
+      <c r="O153" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15" x14ac:dyDescent="0.7">
+      <c r="A154" s="2">
+        <v>153</v>
+      </c>
+      <c r="B154" s="15" t="s">
+        <v>436</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="D154" s="2"/>
+      <c r="E154" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="G154" s="2">
+        <v>0</v>
+      </c>
+      <c r="H154" s="2"/>
+      <c r="I154" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="J154" s="9">
+        <v>0</v>
+      </c>
+      <c r="K154" s="9">
+        <v>0</v>
+      </c>
+      <c r="L154" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="M154" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="N154" s="3"/>
+      <c r="O154" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15" x14ac:dyDescent="0.7">
+      <c r="A155" s="2">
+        <v>154</v>
+      </c>
+      <c r="B155" s="15" t="s">
+        <v>437</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="D155" s="2"/>
+      <c r="E155" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="G155" s="2">
+        <v>0</v>
+      </c>
+      <c r="H155" s="2"/>
+      <c r="I155" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="J155" s="9">
+        <v>0</v>
+      </c>
+      <c r="K155" s="9">
+        <v>0</v>
+      </c>
+      <c r="L155" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="M155" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="N155" s="3"/>
+      <c r="O155" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15" x14ac:dyDescent="0.7">
+      <c r="A156" s="2">
+        <v>155</v>
+      </c>
+      <c r="B156" s="15" t="s">
+        <v>438</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="D156" s="2"/>
+      <c r="E156" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="G156" s="2">
+        <v>0</v>
+      </c>
+      <c r="H156" s="2"/>
+      <c r="I156" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="J156" s="9">
+        <v>0</v>
+      </c>
+      <c r="K156" s="9">
+        <v>0</v>
+      </c>
+      <c r="L156" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="M156" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="N156" s="3"/>
+      <c r="O156" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15" x14ac:dyDescent="0.7">
+      <c r="A157" s="2">
+        <v>156</v>
+      </c>
+      <c r="B157" s="15" t="s">
+        <v>442</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="D157" s="2"/>
+      <c r="E157" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="G157" s="2">
+        <v>0</v>
+      </c>
+      <c r="H157" s="2"/>
+      <c r="I157" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="J157" s="9">
+        <v>0</v>
+      </c>
+      <c r="K157" s="9">
+        <v>0</v>
+      </c>
+      <c r="L157" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="M157" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="N157" s="3"/>
+      <c r="O157" t="s">
         <v>414</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N153" xr:uid="{3CE702F7-D430-49D9-8E32-C0148DF6169F}">
-    <filterColumn colId="5">
-      <filters>
-        <filter val="△"/>
-        <filter val="◎"/>
-        <filter val="〇"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
